--- a/Data/EC/NIT-9014962755.xlsx
+++ b/Data/EC/NIT-9014962755.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A83666F-340D-4C7D-BA37-660264D3250C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{226782DD-144A-4D7E-9E2F-7A9B5CCEBC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8634B525-3BEB-4AC8-BF36-86EA66A1FF0D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{67F0FBDC-1C6D-4E06-8814-F3B4AC050AFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="51">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,72 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73209569</t>
+  </si>
+  <si>
+    <t>JADER PETRO GONZALEZ</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
     <t>73197485</t>
   </si>
   <si>
@@ -74,73 +140,22 @@
     <t>2311</t>
   </si>
   <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>73209569</t>
-  </si>
-  <si>
-    <t>JADER PETRO GONZALEZ</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
     <t>1050966050</t>
   </si>
   <si>
     <t>MARYURI JULIO DE AVILA</t>
+  </si>
+  <si>
+    <t>1002390473</t>
+  </si>
+  <si>
+    <t>DANIEL DAVID FLORES MORALES</t>
+  </si>
+  <si>
+    <t>1050976932</t>
+  </si>
+  <si>
+    <t>JOSE ANDRES ESPITIA CASTRO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -554,7 +569,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{915AA1FD-8564-4594-4939-FD957E11A5FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E57DD7DB-8483-9FA1-211B-4EAA7DCFCEFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -905,8 +920,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405422A2-955A-49D6-B773-7317BC2201BA}">
-  <dimension ref="B2:J45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB1DDAC-686B-4EE7-AE74-A6C68260F81F}">
+  <dimension ref="B2:J48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -917,7 +932,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -930,7 +945,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -975,7 +990,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1007,12 +1022,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1111767</v>
+        <v>1198025</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1023,17 +1038,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F13" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1060,13 +1075,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1120,13 +1135,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F18" s="18">
         <v>46400</v>
@@ -1149,7 +1164,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>46400</v>
@@ -1166,10 +1181,10 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>15</v>
@@ -1189,10 +1204,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>16</v>
@@ -1218,10 +1233,10 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>34027</v>
+        <v>46400</v>
       </c>
       <c r="G22" s="18">
         <v>1160000</v>
@@ -1235,13 +1250,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>46400</v>
@@ -1258,13 +1273,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>46400</v>
@@ -1281,13 +1296,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>46400</v>
@@ -1304,13 +1319,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>46400</v>
@@ -1327,13 +1342,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>46400</v>
@@ -1350,13 +1365,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>46400</v>
@@ -1373,13 +1388,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>46400</v>
@@ -1396,13 +1411,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
         <v>46400</v>
@@ -1419,13 +1434,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>46400</v>
@@ -1442,13 +1457,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>46400</v>
@@ -1465,13 +1480,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
         <v>46400</v>
@@ -1488,13 +1503,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
         <v>46400</v>
@@ -1511,13 +1526,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
         <v>46400</v>
@@ -1534,16 +1549,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F36" s="18">
-        <v>46400</v>
+        <v>34027</v>
       </c>
       <c r="G36" s="18">
         <v>1160000</v>
@@ -1557,13 +1572,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F37" s="18">
         <v>46400</v>
@@ -1580,13 +1595,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F38" s="18">
         <v>46400</v>
@@ -1599,56 +1614,125 @@
       <c r="J38" s="20"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="22" t="s">
+      <c r="B39" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="F39" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G39" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F39" s="24">
+      <c r="D40" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="18">
         <v>56940</v>
       </c>
-      <c r="G39" s="24">
+      <c r="G40" s="18">
         <v>1423500</v>
       </c>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="26"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="32"/>
-      <c r="H44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="32"/>
-      <c r="H45" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="18">
+        <v>20878</v>
+      </c>
+      <c r="G41" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="24">
+        <v>18980</v>
+      </c>
+      <c r="G42" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B47" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="32"/>
+      <c r="H47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B48" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="32"/>
+      <c r="H48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H47:J47"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9014962755.xlsx
+++ b/Data/EC/NIT-9014962755.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{226782DD-144A-4D7E-9E2F-7A9B5CCEBC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10BCBDA2-E52E-42C1-8181-2F9B071BCED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{67F0FBDC-1C6D-4E06-8814-F3B4AC050AFD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7AE57CA2-5CC0-4503-BB0B-F7064BB4D1E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="46">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,97 +65,82 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73197485</t>
+  </si>
+  <si>
+    <t>EDUARDO HERRAN MEJIA</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
     <t>73209569</t>
   </si>
   <si>
     <t>JADER PETRO GONZALEZ</t>
   </si>
   <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>73197485</t>
-  </si>
-  <si>
-    <t>EDUARDO HERRAN MEJIA</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>1050966050</t>
-  </si>
-  <si>
-    <t>MARYURI JULIO DE AVILA</t>
-  </si>
-  <si>
-    <t>1002390473</t>
-  </si>
-  <si>
-    <t>DANIEL DAVID FLORES MORALES</t>
-  </si>
-  <si>
-    <t>1050976932</t>
-  </si>
-  <si>
-    <t>JOSE ANDRES ESPITIA CASTRO</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -254,7 +239,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -267,9 +254,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -469,23 +454,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -513,10 +498,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -569,7 +554,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E57DD7DB-8483-9FA1-211B-4EAA7DCFCEFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72489680-D455-5858-D2D2-7ED943B95F8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -920,8 +905,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB1DDAC-686B-4EE7-AE74-A6C68260F81F}">
-  <dimension ref="B2:J48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C264FA-4434-4C6F-B676-B57A92146305}">
+  <dimension ref="B2:J46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -932,7 +917,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -945,7 +930,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -990,7 +975,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1022,12 +1007,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1198025</v>
+        <v>1147627</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1038,17 +1023,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C13" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F13" s="5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1075,13 +1060,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1112,13 +1097,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>46400</v>
@@ -1141,7 +1126,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>46400</v>
@@ -1158,13 +1143,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
         <v>46400</v>
@@ -1204,10 +1189,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>16</v>
@@ -1233,10 +1218,10 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
-        <v>46400</v>
+        <v>34027</v>
       </c>
       <c r="G22" s="18">
         <v>1160000</v>
@@ -1250,13 +1235,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" s="18">
         <v>46400</v>
@@ -1273,13 +1258,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" s="18">
         <v>46400</v>
@@ -1296,13 +1281,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25" s="18">
         <v>46400</v>
@@ -1319,13 +1304,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26" s="18">
         <v>46400</v>
@@ -1342,13 +1327,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F27" s="18">
         <v>46400</v>
@@ -1365,13 +1350,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F28" s="18">
         <v>46400</v>
@@ -1388,13 +1373,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F29" s="18">
         <v>46400</v>
@@ -1411,13 +1396,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F30" s="18">
         <v>46400</v>
@@ -1434,13 +1419,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F31" s="18">
         <v>46400</v>
@@ -1457,13 +1442,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F32" s="18">
         <v>46400</v>
@@ -1480,13 +1465,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F33" s="18">
         <v>46400</v>
@@ -1503,13 +1488,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F34" s="18">
         <v>46400</v>
@@ -1526,13 +1511,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F35" s="18">
         <v>46400</v>
@@ -1549,16 +1534,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F36" s="18">
-        <v>34027</v>
+        <v>46400</v>
       </c>
       <c r="G36" s="18">
         <v>1160000</v>
@@ -1572,13 +1557,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="F37" s="18">
         <v>46400</v>
@@ -1595,13 +1580,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="F38" s="18">
         <v>46400</v>
@@ -1618,10 +1603,10 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>33</v>
@@ -1637,102 +1622,56 @@
       <c r="J39" s="20"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="16" t="s">
+      <c r="B40" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G40" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="18">
-        <v>20878</v>
-      </c>
-      <c r="G41" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="24">
-        <v>18980</v>
-      </c>
-      <c r="G42" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="26"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" s="32"/>
-      <c r="H47" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="32"/>
-      <c r="H48" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="F40" s="24">
+        <v>46400</v>
+      </c>
+      <c r="G40" s="24">
+        <v>1160000</v>
+      </c>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B45" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="32"/>
+      <c r="H45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B46" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="32"/>
+      <c r="H46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H45:J45"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9014962755.xlsx
+++ b/Data/EC/NIT-9014962755.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10BCBDA2-E52E-42C1-8181-2F9B071BCED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87B1970D-D09D-4234-8CBF-F5DA08663326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7AE57CA2-5CC0-4503-BB0B-F7064BB4D1E5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6DC18108-9308-45B9-9869-EA8AA289B939}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="47">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>2508</t>
+  </si>
+  <si>
+    <t>2509</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -239,9 +242,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -254,7 +255,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -448,29 +451,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -489,19 +492,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -554,7 +563,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72489680-D455-5858-D2D2-7ED943B95F8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58780FD8-7C7E-BE91-1DAB-C32EE3E2B15A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -905,8 +914,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C264FA-4434-4C6F-B676-B57A92146305}">
-  <dimension ref="B2:J46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E473C350-6CD5-4385-B554-8B129C935CAC}">
+  <dimension ref="B2:J47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -928,57 +937,57 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -994,7 +1003,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9014962755</v>
       </c>
@@ -1007,12 +1016,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>1147627</v>
+        <v>1194027</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1023,17 +1032,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1060,13 +1069,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>40</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1079,18 +1088,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G16" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="F16" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G16" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1102,18 +1111,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G17" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="F17" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G17" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1125,18 +1134,18 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G18" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="F18" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G18" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1148,18 +1157,18 @@
       <c r="D19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G19" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="F19" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G19" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1171,18 +1180,18 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G20" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="F20" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G20" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1194,18 +1203,18 @@
       <c r="D21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G21" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="F21" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G21" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1217,18 +1226,18 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>34027</v>
       </c>
-      <c r="G22" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="G22" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1240,18 +1249,18 @@
       <c r="D23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G23" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="F23" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G23" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1263,18 +1272,18 @@
       <c r="D24" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G24" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="F24" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G24" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1286,18 +1295,18 @@
       <c r="D25" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G25" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="F25" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G25" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1309,18 +1318,18 @@
       <c r="D26" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G26" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="F26" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G26" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1332,18 +1341,18 @@
       <c r="D27" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G27" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="F27" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G27" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1355,18 +1364,18 @@
       <c r="D28" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G28" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="F28" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G28" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1378,18 +1387,18 @@
       <c r="D29" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G29" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="F29" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G29" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1401,18 +1410,18 @@
       <c r="D30" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G30" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="F30" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G30" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1424,18 +1433,18 @@
       <c r="D31" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G31" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="F31" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G31" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1447,18 +1456,18 @@
       <c r="D32" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G32" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="F32" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G32" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1470,18 +1479,18 @@
       <c r="D33" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G33" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="F33" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G33" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1493,18 +1502,18 @@
       <c r="D34" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G34" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="F34" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G34" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1516,18 +1525,18 @@
       <c r="D35" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G35" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="F35" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G35" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1539,18 +1548,18 @@
       <c r="D36" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G36" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="F36" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G36" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1562,18 +1571,18 @@
       <c r="D37" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G37" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="F37" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G37" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1585,18 +1594,18 @@
       <c r="D38" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F38" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G38" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="F38" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G38" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1608,70 +1617,93 @@
       <c r="D39" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G39" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="F39" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G39" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="22" t="s">
+      <c r="B40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="24">
-        <v>46400</v>
-      </c>
-      <c r="G40" s="24">
-        <v>1160000</v>
-      </c>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="26"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="32"/>
-      <c r="H45" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+      <c r="F40" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G40" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" s="26">
+        <v>46400</v>
+      </c>
+      <c r="G41" s="26">
+        <v>1160000</v>
+      </c>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="28"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="32"/>
+      <c r="B46" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="34"/>
       <c r="H46" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B47" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="34"/>
+      <c r="H47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="H47:J47"/>
     <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H45:J45"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
